--- a/REGULAR/SP-VMO/REOSA, CECILIA ANAY.xlsx
+++ b/REGULAR/SP-VMO/REOSA, CECILIA ANAY.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="116">
   <si>
     <t>PERIOD</t>
   </si>
@@ -361,6 +361,27 @@
   </si>
   <si>
     <t>UT(0-4-57)</t>
+  </si>
+  <si>
+    <t>10/4,5/2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>SP CONVERTED TO SL</t>
+  </si>
+  <si>
+    <t>SP(3-0-0)</t>
+  </si>
+  <si>
+    <t>12/20-22/2023</t>
+  </si>
+  <si>
+    <t>FL(3-0-0)</t>
+  </si>
+  <si>
+    <t>12/27-29/2023</t>
   </si>
 </sst>
 </file>
@@ -2458,7 +2479,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K156" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K158" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -2805,12 +2826,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K156"/>
+  <dimension ref="A2:M158"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A103" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A100" activePane="bottomLeft"/>
       <selection activeCell="F2" sqref="F2:G2"/>
-      <selection pane="bottomLeft" activeCell="F120" sqref="F120"/>
+      <selection pane="bottomLeft" activeCell="K118" sqref="K118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2973,7 +2994,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>47.627000000000002</v>
+        <v>48.377000000000002</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2983,7 +3004,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>73.5</v>
+        <v>73.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4868,7 +4889,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <v>44896</v>
       </c>
@@ -4894,7 +4915,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20" t="s">
         <v>91</v>
@@ -4914,7 +4935,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="48" t="s">
         <v>85</v>
       </c>
@@ -4932,7 +4953,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <v>44927</v>
       </c>
@@ -4958,7 +4979,7 @@
         <v>44936</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
         <v>44958</v>
       </c>
@@ -4982,7 +5003,7 @@
         <v>44958</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <v>44986</v>
       </c>
@@ -5008,7 +5029,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <v>45017</v>
       </c>
@@ -5028,7 +5049,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <v>45047</v>
       </c>
@@ -5054,7 +5075,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20" t="s">
         <v>58</v>
@@ -5076,7 +5097,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20" t="s">
         <v>58</v>
@@ -5098,7 +5119,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" s="40"/>
       <c r="B107" s="20" t="s">
         <v>58</v>
@@ -5120,7 +5141,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20" t="s">
         <v>55</v>
@@ -5142,10 +5163,10 @@
         <v>45065</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C109" s="13"/>
       <c r="D109" s="39"/>
@@ -5155,14 +5176,19 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H109" s="39"/>
+      <c r="H109" s="39">
+        <v>1</v>
+      </c>
       <c r="I109" s="9"/>
       <c r="J109" s="11"/>
       <c r="K109" s="49" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M109" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <v>45078</v>
       </c>
@@ -5188,7 +5214,7 @@
         <v>45103</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <v>45108</v>
       </c>
@@ -5214,7 +5240,7 @@
         <v>45118</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20" t="s">
         <v>55</v>
@@ -5267,13 +5293,15 @@
         <v>45170</v>
       </c>
       <c r="B114" s="20"/>
-      <c r="C114" s="13"/>
+      <c r="C114" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D114" s="39"/>
       <c r="E114" s="9"/>
       <c r="F114" s="20"/>
-      <c r="G114" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G114" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H114" s="39"/>
       <c r="I114" s="9"/>
@@ -5284,43 +5312,61 @@
       <c r="A115" s="40">
         <v>45200</v>
       </c>
-      <c r="B115" s="20"/>
-      <c r="C115" s="13"/>
+      <c r="B115" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C115" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D115" s="39"/>
       <c r="E115" s="9"/>
       <c r="F115" s="20"/>
-      <c r="G115" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H115" s="39"/>
+      <c r="G115" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H115" s="39">
+        <v>2</v>
+      </c>
       <c r="I115" s="9"/>
       <c r="J115" s="11"/>
-      <c r="K115" s="20"/>
+      <c r="K115" s="20" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <v>45231</v>
       </c>
-      <c r="B116" s="20"/>
-      <c r="C116" s="13"/>
+      <c r="B116" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C116" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D116" s="39"/>
       <c r="E116" s="9"/>
       <c r="F116" s="20"/>
-      <c r="G116" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H116" s="39"/>
+      <c r="G116" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H116" s="39">
+        <v>1</v>
+      </c>
       <c r="I116" s="9"/>
       <c r="J116" s="11"/>
-      <c r="K116" s="20"/>
+      <c r="K116" s="49">
+        <v>45252</v>
+      </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <v>45261</v>
       </c>
-      <c r="B117" s="20"/>
+      <c r="B117" s="20" t="s">
+        <v>112</v>
+      </c>
       <c r="C117" s="13"/>
       <c r="D117" s="39"/>
       <c r="E117" s="9"/>
@@ -5332,15 +5378,19 @@
       <c r="H117" s="39"/>
       <c r="I117" s="9"/>
       <c r="J117" s="11"/>
-      <c r="K117" s="20"/>
+      <c r="K117" s="20" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A118" s="40">
-        <v>45292</v>
-      </c>
-      <c r="B118" s="20"/>
+      <c r="A118" s="40"/>
+      <c r="B118" s="20" t="s">
+        <v>114</v>
+      </c>
       <c r="C118" s="13"/>
-      <c r="D118" s="39"/>
+      <c r="D118" s="39">
+        <v>3</v>
+      </c>
       <c r="E118" s="9"/>
       <c r="F118" s="20"/>
       <c r="G118" s="13" t="str">
@@ -5350,11 +5400,13 @@
       <c r="H118" s="39"/>
       <c r="I118" s="9"/>
       <c r="J118" s="11"/>
-      <c r="K118" s="20"/>
+      <c r="K118" s="20" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A119" s="40">
-        <v>45323</v>
+      <c r="A119" s="48" t="s">
+        <v>110</v>
       </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5372,7 +5424,7 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
-        <v>45352</v>
+        <v>45292</v>
       </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5390,7 +5442,7 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
-        <v>45383</v>
+        <v>45323</v>
       </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5408,7 +5460,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
-        <v>45413</v>
+        <v>45352</v>
       </c>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5426,7 +5478,7 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
-        <v>45444</v>
+        <v>45383</v>
       </c>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5444,7 +5496,7 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
-        <v>45474</v>
+        <v>45413</v>
       </c>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5462,7 +5514,7 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
-        <v>45505</v>
+        <v>45444</v>
       </c>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5480,7 +5532,7 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
-        <v>45536</v>
+        <v>45474</v>
       </c>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5498,7 +5550,7 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
-        <v>45566</v>
+        <v>45505</v>
       </c>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5516,7 +5568,7 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
-        <v>45597</v>
+        <v>45536</v>
       </c>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5534,7 +5586,7 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
-        <v>45627</v>
+        <v>45566</v>
       </c>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5552,7 +5604,7 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
-        <v>45658</v>
+        <v>45597</v>
       </c>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5570,7 +5622,7 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
-        <v>45689</v>
+        <v>45627</v>
       </c>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5588,7 +5640,7 @@
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
-        <v>45717</v>
+        <v>45658</v>
       </c>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -5606,7 +5658,7 @@
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
-        <v>45748</v>
+        <v>45689</v>
       </c>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -5624,7 +5676,7 @@
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
-        <v>45778</v>
+        <v>45717</v>
       </c>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -5642,7 +5694,7 @@
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40">
-        <v>45809</v>
+        <v>45748</v>
       </c>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -5660,7 +5712,7 @@
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
-        <v>45839</v>
+        <v>45778</v>
       </c>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -5678,7 +5730,7 @@
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
-        <v>45870</v>
+        <v>45809</v>
       </c>
       <c r="B137" s="20"/>
       <c r="C137" s="13"/>
@@ -5696,7 +5748,7 @@
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40">
-        <v>45901</v>
+        <v>45839</v>
       </c>
       <c r="B138" s="20"/>
       <c r="C138" s="13"/>
@@ -5714,7 +5766,7 @@
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40">
-        <v>45931</v>
+        <v>45870</v>
       </c>
       <c r="B139" s="20"/>
       <c r="C139" s="13"/>
@@ -5732,7 +5784,7 @@
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40">
-        <v>45962</v>
+        <v>45901</v>
       </c>
       <c r="B140" s="20"/>
       <c r="C140" s="13"/>
@@ -5750,7 +5802,7 @@
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40">
-        <v>45992</v>
+        <v>45931</v>
       </c>
       <c r="B141" s="20"/>
       <c r="C141" s="13"/>
@@ -5768,7 +5820,7 @@
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40">
-        <v>46023</v>
+        <v>45962</v>
       </c>
       <c r="B142" s="20"/>
       <c r="C142" s="13"/>
@@ -5786,7 +5838,7 @@
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40">
-        <v>46054</v>
+        <v>45992</v>
       </c>
       <c r="B143" s="20"/>
       <c r="C143" s="13"/>
@@ -5804,7 +5856,7 @@
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40">
-        <v>46082</v>
+        <v>46023</v>
       </c>
       <c r="B144" s="20"/>
       <c r="C144" s="13"/>
@@ -5822,7 +5874,7 @@
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40">
-        <v>46113</v>
+        <v>46054</v>
       </c>
       <c r="B145" s="20"/>
       <c r="C145" s="13"/>
@@ -5840,7 +5892,7 @@
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40">
-        <v>46143</v>
+        <v>46082</v>
       </c>
       <c r="B146" s="20"/>
       <c r="C146" s="13"/>
@@ -5858,7 +5910,7 @@
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40">
-        <v>46174</v>
+        <v>46113</v>
       </c>
       <c r="B147" s="20"/>
       <c r="C147" s="13"/>
@@ -5876,7 +5928,7 @@
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40">
-        <v>46204</v>
+        <v>46143</v>
       </c>
       <c r="B148" s="20"/>
       <c r="C148" s="13"/>
@@ -5894,7 +5946,7 @@
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40">
-        <v>46235</v>
+        <v>46174</v>
       </c>
       <c r="B149" s="20"/>
       <c r="C149" s="13"/>
@@ -5912,7 +5964,7 @@
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40">
-        <v>46266</v>
+        <v>46204</v>
       </c>
       <c r="B150" s="20"/>
       <c r="C150" s="13"/>
@@ -5929,7 +5981,9 @@
       <c r="K150" s="20"/>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A151" s="40"/>
+      <c r="A151" s="40">
+        <v>46235</v>
+      </c>
       <c r="B151" s="20"/>
       <c r="C151" s="13"/>
       <c r="D151" s="39"/>
@@ -5945,7 +5999,9 @@
       <c r="K151" s="20"/>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A152" s="40"/>
+      <c r="A152" s="40">
+        <v>46266</v>
+      </c>
       <c r="B152" s="20"/>
       <c r="C152" s="13"/>
       <c r="D152" s="39"/>
@@ -6009,20 +6065,52 @@
       <c r="K155" s="20"/>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A156" s="41"/>
-      <c r="B156" s="15"/>
-      <c r="C156" s="42"/>
-      <c r="D156" s="43"/>
+      <c r="A156" s="40"/>
+      <c r="B156" s="20"/>
+      <c r="C156" s="13"/>
+      <c r="D156" s="39"/>
       <c r="E156" s="9"/>
-      <c r="F156" s="15"/>
-      <c r="G156" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H156" s="43"/>
+      <c r="F156" s="20"/>
+      <c r="G156" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H156" s="39"/>
       <c r="I156" s="9"/>
-      <c r="J156" s="12"/>
-      <c r="K156" s="15"/>
+      <c r="J156" s="11"/>
+      <c r="K156" s="20"/>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A157" s="40"/>
+      <c r="B157" s="20"/>
+      <c r="C157" s="13"/>
+      <c r="D157" s="39"/>
+      <c r="E157" s="9"/>
+      <c r="F157" s="20"/>
+      <c r="G157" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H157" s="39"/>
+      <c r="I157" s="9"/>
+      <c r="J157" s="11"/>
+      <c r="K157" s="20"/>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A158" s="41"/>
+      <c r="B158" s="15"/>
+      <c r="C158" s="42"/>
+      <c r="D158" s="43"/>
+      <c r="E158" s="9"/>
+      <c r="F158" s="15"/>
+      <c r="G158" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H158" s="43"/>
+      <c r="I158" s="9"/>
+      <c r="J158" s="12"/>
+      <c r="K158" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
